--- a/GYM_TM_HORARIO.xlsx
+++ b/GYM_TM_HORARIO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t>HORA</t>
   </si>
@@ -55,9 +55,6 @@
     <t>EQUILIBRATE</t>
   </si>
   <si>
-    <t>AQUA-SENIOR</t>
-  </si>
-  <si>
     <t>MEDIO</t>
   </si>
   <si>
@@ -91,10 +88,7 @@
     <t>CICLO VIRTUAL</t>
   </si>
   <si>
-    <t>OCR-BOX</t>
-  </si>
-  <si>
-    <t>HIPOPRESIVOS</t>
+    <t>PILATES</t>
   </si>
 </sst>
 </file>
@@ -484,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -555,20 +549,18 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -580,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -599,14 +591,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -618,98 +612,94 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+        <v>0.4375</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,38 +707,36 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
@@ -756,44 +744,54 @@
       <c r="A14" s="2">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -803,18 +801,20 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
@@ -823,26 +823,36 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -851,40 +861,40 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
@@ -893,20 +903,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -916,119 +924,93 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0.80208333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
